--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-201_業務要求一覧(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-201_業務要求一覧(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1298,16 +1298,6 @@
   </si>
   <si>
     <t>2018年08月29日</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -1720,6 +1710,13 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t>ダトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3891,9 +3888,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="10"/>
       <c r="J31" s="14"/>
-      <c r="R31" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="R31" s="15"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="10"/>
@@ -3933,20 +3928,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4421,7 +4420,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4444,7 +4443,7 @@
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4482,17 +4481,17 @@
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4556,7 +4555,7 @@
       <c r="G19" s="32"/>
       <c r="H19" s="33"/>
       <c r="I19" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
@@ -4642,7 +4641,7 @@
       <c r="G21" s="26"/>
       <c r="H21" s="27"/>
       <c r="I21" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
@@ -4661,7 +4660,7 @@
       <c r="X21" s="26"/>
       <c r="Y21" s="27"/>
       <c r="Z21" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
@@ -4687,7 +4686,7 @@
       <c r="G22" s="26"/>
       <c r="H22" s="27"/>
       <c r="I22" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
@@ -4706,7 +4705,7 @@
       <c r="X22" s="26"/>
       <c r="Y22" s="27"/>
       <c r="Z22" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
@@ -4731,7 +4730,7 @@
       <c r="G23" s="26"/>
       <c r="H23" s="27"/>
       <c r="I23" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -4859,7 +4858,7 @@
       <c r="G26" s="26"/>
       <c r="H26" s="27"/>
       <c r="I26" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
@@ -4988,7 +4987,7 @@
       <c r="G31" s="26"/>
       <c r="H31" s="27"/>
       <c r="I31" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
@@ -5030,7 +5029,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="27"/>
       <c r="I32" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
@@ -5072,7 +5071,7 @@
       <c r="G33" s="26"/>
       <c r="H33" s="27"/>
       <c r="I33" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
@@ -5156,7 +5155,7 @@
       <c r="G35" s="26"/>
       <c r="H35" s="27"/>
       <c r="I35" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>

--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-201_業務要求一覧(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-201_業務要求一覧(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6764EAD4-6DC5-4334-8BF0-E6390104B79C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="28830" windowHeight="4095"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="129">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -1299,17 +1310,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <t>実現対象外の要求として取下げられた日付を記述する。</t>
@@ -1713,18 +1713,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -2221,6 +2214,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2239,152 +2241,143 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2465,6 +2458,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2486,7 +2482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2584,52 +2586,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6029325"/>
-          <a:ext cx="838200" cy="294162"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2650,7 +2606,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線矢印コネクタ 1"/>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -2695,7 +2657,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2755,7 +2723,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2814,7 +2788,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2873,7 +2853,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2964,7 +2950,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3051,7 +3043,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="カギ線コネクタ 7"/>
+        <xdr:cNvPr id="8" name="カギ線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="6" idx="1"/>
@@ -3103,7 +3101,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="カギ線コネクタ 8"/>
+        <xdr:cNvPr id="9" name="カギ線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="7" idx="1"/>
@@ -3150,7 +3154,13 @@
     <xdr:ext cx="1364476" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3241,7 +3251,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3328,7 +3344,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3415,7 +3437,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="カギ線コネクタ 13"/>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="11" idx="1"/>
@@ -3467,7 +3495,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="カギ線コネクタ 14"/>
+        <xdr:cNvPr id="15" name="カギ線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="12" idx="1"/>
@@ -3508,7 +3542,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3550,7 +3584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3583,9 +3617,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3618,6 +3669,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3793,7 +3861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3902,58 +3970,47 @@
       <c r="R32" s="18"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="20"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="19"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="20"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="20"/>
       <c r="R38" s="19"/>
       <c r="S38" s="20"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>115</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="22"/>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="20"/>
-      <c r="R39" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="R39" s="20"/>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4416,17 +4473,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH65"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4443,7 +4497,7 @@
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4481,17 +4535,17 @@
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4503,173 +4557,173 @@
       <c r="B18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="28" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="28" t="s">
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="30"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="33"/>
     </row>
     <row r="19" spans="1:34" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="31" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="33"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="27"/>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="24">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="25" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="27"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="30"/>
     </row>
     <row r="21" spans="1:34" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="24">
         <f t="shared" ref="B21:B26" si="0">B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="27"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="30"/>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
@@ -4677,637 +4731,637 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="27"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="30"/>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="27"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="30"/>
     </row>
     <row r="24" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="25" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="25" t="s">
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="27"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="30"/>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="25" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="27"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="30"/>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="27"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="30"/>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="28" t="s">
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="28" t="s">
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="30"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="33"/>
     </row>
     <row r="30" spans="1:34" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B30" s="24">
         <f>B26+1</f>
         <v>9</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="25" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="25" t="s">
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="27"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="30"/>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="24">
         <f>B30+1</f>
         <v>10</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="27"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="30"/>
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="24">
         <f t="shared" ref="B32:B38" si="1">B31+1</f>
         <v>11</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="27"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="30"/>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="24">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="27"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="30"/>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="24">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="25" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="27"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="30"/>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="24">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="27"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="30"/>
     </row>
     <row r="36" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="24">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="25" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="27"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="30"/>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="24">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="25" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="27"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="30"/>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="24">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="25" t="s">
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="27"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="30"/>
     </row>
     <row r="40" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
@@ -5317,6 +5371,47 @@
     <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:Y33"/>
+    <mergeCell ref="Z33:AH33"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:Y31"/>
+    <mergeCell ref="Z31:AH31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:Y32"/>
+    <mergeCell ref="Z32:AH32"/>
+    <mergeCell ref="I30:Y30"/>
+    <mergeCell ref="Z30:AH30"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:Y26"/>
+    <mergeCell ref="Z26:AH26"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:Y29"/>
+    <mergeCell ref="Z29:AH29"/>
+    <mergeCell ref="I21:Y21"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:Y24"/>
+    <mergeCell ref="Z24:AH24"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:Y38"/>
+    <mergeCell ref="Z38:AH38"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:Y34"/>
+    <mergeCell ref="Z34:AH34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I35:Y35"/>
+    <mergeCell ref="Z35:AH35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I36:Y36"/>
+    <mergeCell ref="Z36:AH36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:Y37"/>
+    <mergeCell ref="Z37:AH37"/>
     <mergeCell ref="Z19:AH19"/>
     <mergeCell ref="I25:Y25"/>
     <mergeCell ref="Z25:AH25"/>
@@ -5333,47 +5428,6 @@
     <mergeCell ref="I20:Y20"/>
     <mergeCell ref="Z20:AH20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:Y38"/>
-    <mergeCell ref="Z38:AH38"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:Y34"/>
-    <mergeCell ref="Z34:AH34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I35:Y35"/>
-    <mergeCell ref="Z35:AH35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:Y36"/>
-    <mergeCell ref="Z36:AH36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="I37:Y37"/>
-    <mergeCell ref="Z37:AH37"/>
-    <mergeCell ref="I21:Y21"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:Y24"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:Y26"/>
-    <mergeCell ref="Z26:AH26"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:Y29"/>
-    <mergeCell ref="Z29:AH29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:Y33"/>
-    <mergeCell ref="Z33:AH33"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:Y31"/>
-    <mergeCell ref="Z31:AH31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:Y32"/>
-    <mergeCell ref="Z32:AH32"/>
-    <mergeCell ref="I30:Y30"/>
-    <mergeCell ref="Z30:AH30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -5389,7 +5443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BS21"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -5408,281 +5462,281 @@
     </row>
     <row r="2" spans="1:71" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:71" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="75" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="76" t="s">
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="77"/>
-      <c r="AT3" s="77"/>
-      <c r="AU3" s="77"/>
-      <c r="AV3" s="77"/>
-      <c r="AW3" s="77"/>
-      <c r="AX3" s="77"/>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="77"/>
-      <c r="BC3" s="77"/>
-      <c r="BD3" s="57" t="s">
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58"/>
+      <c r="BB3" s="58"/>
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="59"/>
-      <c r="BG3" s="57" t="s">
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="53"/>
+      <c r="BG3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="BH3" s="58"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="75" t="s">
+      <c r="BH3" s="52"/>
+      <c r="BI3" s="53"/>
+      <c r="BJ3" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="75"/>
-      <c r="BM3" s="75"/>
-      <c r="BN3" s="75"/>
-      <c r="BO3" s="75"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
-      <c r="BR3" s="75"/>
-      <c r="BS3" s="75"/>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="60"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="60"/>
+      <c r="BO3" s="60"/>
+      <c r="BP3" s="60"/>
+      <c r="BQ3" s="60"/>
+      <c r="BR3" s="60"/>
+      <c r="BS3" s="60"/>
     </row>
     <row r="4" spans="1:71" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65" t="s">
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65" t="s">
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="65"/>
-      <c r="T4" s="64" t="s">
+      <c r="S4" s="49"/>
+      <c r="T4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="64"/>
-      <c r="V4" s="65" t="s">
+      <c r="U4" s="50"/>
+      <c r="V4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65" t="s">
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="64" t="s">
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="64" t="s">
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65" t="s">
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="64" t="s">
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="64" t="s">
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="65"/>
-      <c r="AS4" s="64" t="s">
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="AT4" s="65"/>
-      <c r="AU4" s="65"/>
-      <c r="AV4" s="65" t="s">
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="65"/>
-      <c r="AZ4" s="65"/>
-      <c r="BA4" s="64" t="s">
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="BB4" s="65"/>
-      <c r="BC4" s="65"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="62"/>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="61"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="64" t="s">
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="BK4" s="65"/>
-      <c r="BL4" s="65"/>
-      <c r="BM4" s="64" t="s">
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="BN4" s="65"/>
-      <c r="BO4" s="65"/>
-      <c r="BP4" s="64" t="s">
+      <c r="BN4" s="49"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="BQ4" s="64"/>
-      <c r="BR4" s="64"/>
-      <c r="BS4" s="65"/>
+      <c r="BQ4" s="50"/>
+      <c r="BR4" s="50"/>
+      <c r="BS4" s="49"/>
     </row>
     <row r="5" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="69" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="47" t="s">
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="47" t="s">
+      <c r="Q5" s="65"/>
+      <c r="R5" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="48"/>
-      <c r="T5" s="47" t="s">
+      <c r="S5" s="65"/>
+      <c r="T5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="48"/>
-      <c r="V5" s="47" t="s">
+      <c r="U5" s="65"/>
+      <c r="V5" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="51"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="50" t="s">
+      <c r="W5" s="64"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="50" t="s">
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="47" t="s">
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="47" t="s">
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="56">
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="65"/>
+      <c r="AJ5" s="73">
         <v>42287</v>
       </c>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="56">
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="65"/>
+      <c r="AM5" s="73">
         <v>42323</v>
       </c>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="48"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="65"/>
       <c r="AP5" s="66" t="s">
         <v>54</v>
       </c>
       <c r="AQ5" s="66"/>
       <c r="AR5" s="66"/>
-      <c r="AS5" s="47" t="s">
+      <c r="AS5" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="48"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="65"/>
       <c r="AV5" s="66" t="s">
         <v>50</v>
       </c>
@@ -5690,134 +5744,134 @@
       <c r="AX5" s="66"/>
       <c r="AY5" s="66"/>
       <c r="AZ5" s="66"/>
-      <c r="BA5" s="56">
+      <c r="BA5" s="73">
         <v>42328</v>
       </c>
-      <c r="BB5" s="51"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="68" t="s">
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="65"/>
+      <c r="BD5" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="BE5" s="68"/>
-      <c r="BF5" s="68"/>
-      <c r="BG5" s="63" t="s">
+      <c r="BE5" s="76"/>
+      <c r="BF5" s="76"/>
+      <c r="BG5" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="BH5" s="54"/>
-      <c r="BI5" s="54"/>
-      <c r="BJ5" s="54" t="s">
+      <c r="BH5" s="61"/>
+      <c r="BI5" s="61"/>
+      <c r="BJ5" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="BK5" s="54"/>
-      <c r="BL5" s="54"/>
-      <c r="BM5" s="54" t="s">
+      <c r="BK5" s="61"/>
+      <c r="BL5" s="61"/>
+      <c r="BM5" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="BN5" s="54"/>
-      <c r="BO5" s="54"/>
-      <c r="BP5" s="54" t="s">
+      <c r="BN5" s="61"/>
+      <c r="BO5" s="61"/>
+      <c r="BP5" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="BQ5" s="54"/>
-      <c r="BR5" s="54"/>
-      <c r="BS5" s="54"/>
+      <c r="BQ5" s="61"/>
+      <c r="BR5" s="61"/>
+      <c r="BS5" s="61"/>
     </row>
     <row r="6" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="25" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="40" t="s">
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="40" t="s">
+      <c r="Q6" s="36"/>
+      <c r="R6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="37"/>
-      <c r="T6" s="40" t="s">
+      <c r="S6" s="36"/>
+      <c r="T6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="37"/>
-      <c r="V6" s="40" t="s">
+      <c r="U6" s="36"/>
+      <c r="V6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="W6" s="36"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="41" t="s">
+      <c r="W6" s="35"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="41" t="s">
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="40" t="s">
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="40" t="s">
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="35">
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="47">
         <v>42287</v>
       </c>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="40" t="s">
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="38" t="s">
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="40" t="s">
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="38" t="s">
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="49">
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="48">
         <v>42307</v>
       </c>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="37"/>
-      <c r="BD6" s="67" t="s">
+      <c r="BB6" s="35"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="55" t="s">
+      <c r="BE6" s="75"/>
+      <c r="BF6" s="75"/>
+      <c r="BG6" s="43" t="s">
         <v>94</v>
       </c>
       <c r="BH6" s="39"/>
@@ -5840,101 +5894,101 @@
       <c r="BS6" s="39"/>
     </row>
     <row r="7" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="25" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="40" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="40" t="s">
+      <c r="Q7" s="36"/>
+      <c r="R7" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="37"/>
-      <c r="T7" s="40" t="s">
+      <c r="S7" s="36"/>
+      <c r="T7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="37"/>
-      <c r="V7" s="40" t="s">
+      <c r="U7" s="36"/>
+      <c r="V7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="41" t="s">
+      <c r="W7" s="35"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="40" t="s">
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="40" t="s">
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="40" t="s">
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="35">
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="47">
         <v>42292</v>
       </c>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="40" t="s">
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="38" t="s">
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="49">
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="48">
         <v>42307</v>
       </c>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="25" t="s">
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="AW7" s="26"/>
-      <c r="AX7" s="26"/>
-      <c r="AY7" s="26"/>
-      <c r="AZ7" s="27"/>
-      <c r="BA7" s="49">
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
+      <c r="BA7" s="48">
         <v>42307</v>
       </c>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="37"/>
-      <c r="BD7" s="44" t="s">
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="BE7" s="45"/>
-      <c r="BF7" s="46"/>
-      <c r="BG7" s="55" t="s">
+      <c r="BE7" s="41"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="43" t="s">
         <v>50</v>
       </c>
       <c r="BH7" s="39"/>
@@ -5957,100 +6011,100 @@
       <c r="BS7" s="39"/>
     </row>
     <row r="8" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="40" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="40" t="s">
+      <c r="Q8" s="36"/>
+      <c r="R8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="37"/>
-      <c r="T8" s="40" t="s">
+      <c r="S8" s="36"/>
+      <c r="T8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="40" t="s">
+      <c r="U8" s="36"/>
+      <c r="V8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="36"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="41" t="s">
+      <c r="W8" s="35"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="40" t="s">
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="40" t="s">
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="40" t="s">
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="35">
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="47">
         <v>42292</v>
       </c>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="40" t="s">
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="38" t="s">
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="40" t="s">
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="38" t="s">
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AW8" s="38"/>
-      <c r="AX8" s="38"/>
-      <c r="AY8" s="38"/>
-      <c r="AZ8" s="38"/>
-      <c r="BA8" s="49">
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="48">
         <v>42307</v>
       </c>
-      <c r="BB8" s="36"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="44" t="s">
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="36"/>
+      <c r="BD8" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="BE8" s="45"/>
-      <c r="BF8" s="46"/>
+      <c r="BE8" s="41"/>
+      <c r="BF8" s="42"/>
       <c r="BG8" s="39" t="s">
         <v>95</v>
       </c>
@@ -6074,100 +6128,100 @@
       <c r="BS8" s="39"/>
     </row>
     <row r="9" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="44" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="25" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="40" t="s">
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="40" t="s">
+      <c r="Q9" s="36"/>
+      <c r="R9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="40" t="s">
+      <c r="S9" s="36"/>
+      <c r="T9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="40" t="s">
+      <c r="U9" s="36"/>
+      <c r="V9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="W9" s="36"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="41" t="s">
+      <c r="W9" s="35"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="41" t="s">
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="40" t="s">
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="40" t="s">
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="35">
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="47">
         <v>42292</v>
       </c>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="40" t="s">
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="38" t="s">
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="40" t="s">
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="38" t="s">
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38"/>
-      <c r="AY9" s="38"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="49">
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="48">
         <v>42307</v>
       </c>
-      <c r="BB9" s="36"/>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="44" t="s">
+      <c r="BB9" s="35"/>
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="46"/>
+      <c r="BE9" s="41"/>
+      <c r="BF9" s="42"/>
       <c r="BG9" s="39" t="s">
         <v>95</v>
       </c>
@@ -6191,588 +6245,588 @@
       <c r="BS9" s="39"/>
     </row>
     <row r="10" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="40"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="40"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="38"/>
-      <c r="AW10" s="38"/>
-      <c r="AX10" s="38"/>
-      <c r="AY10" s="38"/>
-      <c r="AZ10" s="38"/>
-      <c r="BA10" s="40"/>
-      <c r="BB10" s="36"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="38"/>
-      <c r="BE10" s="38"/>
-      <c r="BF10" s="38"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="34"/>
-      <c r="BI10" s="34"/>
-      <c r="BJ10" s="34"/>
-      <c r="BK10" s="34"/>
-      <c r="BL10" s="34"/>
-      <c r="BM10" s="34"/>
-      <c r="BN10" s="34"/>
-      <c r="BO10" s="34"/>
-      <c r="BP10" s="34"/>
-      <c r="BQ10" s="34"/>
-      <c r="BR10" s="34"/>
-      <c r="BS10" s="34"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="37"/>
+      <c r="AR10" s="37"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="37"/>
+      <c r="AW10" s="37"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="35"/>
+      <c r="BC10" s="36"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="37"/>
+      <c r="BG10" s="38"/>
+      <c r="BH10" s="38"/>
+      <c r="BI10" s="38"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="38"/>
+      <c r="BL10" s="38"/>
+      <c r="BM10" s="38"/>
+      <c r="BN10" s="38"/>
+      <c r="BO10" s="38"/>
+      <c r="BP10" s="38"/>
+      <c r="BQ10" s="38"/>
+      <c r="BR10" s="38"/>
+      <c r="BS10" s="38"/>
     </row>
     <row r="11" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="40"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="40"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="38"/>
-      <c r="AW11" s="38"/>
-      <c r="AX11" s="38"/>
-      <c r="AY11" s="38"/>
-      <c r="AZ11" s="38"/>
-      <c r="BA11" s="40"/>
-      <c r="BB11" s="36"/>
-      <c r="BC11" s="37"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="38"/>
-      <c r="BF11" s="38"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="34"/>
-      <c r="BI11" s="34"/>
-      <c r="BJ11" s="34"/>
-      <c r="BK11" s="34"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="34"/>
-      <c r="BN11" s="34"/>
-      <c r="BO11" s="34"/>
-      <c r="BP11" s="34"/>
-      <c r="BQ11" s="34"/>
-      <c r="BR11" s="34"/>
-      <c r="BS11" s="34"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="35"/>
+      <c r="BC11" s="36"/>
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="38"/>
+      <c r="BM11" s="38"/>
+      <c r="BN11" s="38"/>
+      <c r="BO11" s="38"/>
+      <c r="BP11" s="38"/>
+      <c r="BQ11" s="38"/>
+      <c r="BR11" s="38"/>
+      <c r="BS11" s="38"/>
     </row>
     <row r="12" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="40"/>
-      <c r="AT12" s="36"/>
-      <c r="AU12" s="37"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="40"/>
-      <c r="BB12" s="36"/>
-      <c r="BC12" s="37"/>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="38"/>
-      <c r="BG12" s="34"/>
-      <c r="BH12" s="34"/>
-      <c r="BI12" s="34"/>
-      <c r="BJ12" s="34"/>
-      <c r="BK12" s="34"/>
-      <c r="BL12" s="34"/>
-      <c r="BM12" s="34"/>
-      <c r="BN12" s="34"/>
-      <c r="BO12" s="34"/>
-      <c r="BP12" s="34"/>
-      <c r="BQ12" s="34"/>
-      <c r="BR12" s="34"/>
-      <c r="BS12" s="34"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="35"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="37"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="34"/>
+      <c r="BB12" s="35"/>
+      <c r="BC12" s="36"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="37"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="38"/>
+      <c r="BL12" s="38"/>
+      <c r="BM12" s="38"/>
+      <c r="BN12" s="38"/>
+      <c r="BO12" s="38"/>
+      <c r="BP12" s="38"/>
+      <c r="BQ12" s="38"/>
+      <c r="BR12" s="38"/>
+      <c r="BS12" s="38"/>
     </row>
     <row r="13" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="40"/>
-      <c r="AT13" s="36"/>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
-      <c r="AY13" s="38"/>
-      <c r="AZ13" s="38"/>
-      <c r="BA13" s="40"/>
-      <c r="BB13" s="36"/>
-      <c r="BC13" s="37"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="38"/>
-      <c r="BG13" s="34"/>
-      <c r="BH13" s="34"/>
-      <c r="BI13" s="34"/>
-      <c r="BJ13" s="34"/>
-      <c r="BK13" s="34"/>
-      <c r="BL13" s="34"/>
-      <c r="BM13" s="34"/>
-      <c r="BN13" s="34"/>
-      <c r="BO13" s="34"/>
-      <c r="BP13" s="34"/>
-      <c r="BQ13" s="34"/>
-      <c r="BR13" s="34"/>
-      <c r="BS13" s="34"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="37"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="37"/>
+      <c r="AW13" s="37"/>
+      <c r="AX13" s="37"/>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="37"/>
+      <c r="BA13" s="34"/>
+      <c r="BB13" s="35"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="37"/>
+      <c r="BE13" s="37"/>
+      <c r="BF13" s="37"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="38"/>
+      <c r="BI13" s="38"/>
+      <c r="BJ13" s="38"/>
+      <c r="BK13" s="38"/>
+      <c r="BL13" s="38"/>
+      <c r="BM13" s="38"/>
+      <c r="BN13" s="38"/>
+      <c r="BO13" s="38"/>
+      <c r="BP13" s="38"/>
+      <c r="BQ13" s="38"/>
+      <c r="BR13" s="38"/>
+      <c r="BS13" s="38"/>
     </row>
     <row r="14" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
-      <c r="AX14" s="38"/>
-      <c r="AY14" s="38"/>
-      <c r="AZ14" s="38"/>
-      <c r="BA14" s="40"/>
-      <c r="BB14" s="36"/>
-      <c r="BC14" s="37"/>
-      <c r="BD14" s="38"/>
-      <c r="BE14" s="38"/>
-      <c r="BF14" s="38"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="34"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="34"/>
-      <c r="BN14" s="34"/>
-      <c r="BO14" s="34"/>
-      <c r="BP14" s="34"/>
-      <c r="BQ14" s="34"/>
-      <c r="BR14" s="34"/>
-      <c r="BS14" s="34"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="37"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="37"/>
+      <c r="AW14" s="37"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+      <c r="BA14" s="34"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="36"/>
+      <c r="BD14" s="37"/>
+      <c r="BE14" s="37"/>
+      <c r="BF14" s="37"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="38"/>
+      <c r="BL14" s="38"/>
+      <c r="BM14" s="38"/>
+      <c r="BN14" s="38"/>
+      <c r="BO14" s="38"/>
+      <c r="BP14" s="38"/>
+      <c r="BQ14" s="38"/>
+      <c r="BR14" s="38"/>
+      <c r="BS14" s="38"/>
     </row>
     <row r="15" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="40"/>
-      <c r="AT15" s="36"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="38"/>
-      <c r="AW15" s="38"/>
-      <c r="AX15" s="38"/>
-      <c r="AY15" s="38"/>
-      <c r="AZ15" s="38"/>
-      <c r="BA15" s="40"/>
-      <c r="BB15" s="36"/>
-      <c r="BC15" s="37"/>
-      <c r="BD15" s="38"/>
-      <c r="BE15" s="38"/>
-      <c r="BF15" s="38"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="34"/>
-      <c r="BI15" s="34"/>
-      <c r="BJ15" s="34"/>
-      <c r="BK15" s="34"/>
-      <c r="BL15" s="34"/>
-      <c r="BM15" s="34"/>
-      <c r="BN15" s="34"/>
-      <c r="BO15" s="34"/>
-      <c r="BP15" s="34"/>
-      <c r="BQ15" s="34"/>
-      <c r="BR15" s="34"/>
-      <c r="BS15" s="34"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="35"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="37"/>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="37"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="37"/>
+      <c r="BA15" s="34"/>
+      <c r="BB15" s="35"/>
+      <c r="BC15" s="36"/>
+      <c r="BD15" s="37"/>
+      <c r="BE15" s="37"/>
+      <c r="BF15" s="37"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="38"/>
+      <c r="BL15" s="38"/>
+      <c r="BM15" s="38"/>
+      <c r="BN15" s="38"/>
+      <c r="BO15" s="38"/>
+      <c r="BP15" s="38"/>
+      <c r="BQ15" s="38"/>
+      <c r="BR15" s="38"/>
+      <c r="BS15" s="38"/>
     </row>
     <row r="16" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="40"/>
-      <c r="AT16" s="36"/>
-      <c r="AU16" s="37"/>
-      <c r="AV16" s="38"/>
-      <c r="AW16" s="38"/>
-      <c r="AX16" s="38"/>
-      <c r="AY16" s="38"/>
-      <c r="AZ16" s="38"/>
-      <c r="BA16" s="40"/>
-      <c r="BB16" s="36"/>
-      <c r="BC16" s="37"/>
-      <c r="BD16" s="38"/>
-      <c r="BE16" s="38"/>
-      <c r="BF16" s="38"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="34"/>
-      <c r="BI16" s="34"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="34"/>
-      <c r="BL16" s="34"/>
-      <c r="BM16" s="34"/>
-      <c r="BN16" s="34"/>
-      <c r="BO16" s="34"/>
-      <c r="BP16" s="34"/>
-      <c r="BQ16" s="34"/>
-      <c r="BR16" s="34"/>
-      <c r="BS16" s="34"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="35"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="37"/>
+      <c r="AW16" s="37"/>
+      <c r="AX16" s="37"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="37"/>
+      <c r="BA16" s="34"/>
+      <c r="BB16" s="35"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="37"/>
+      <c r="BE16" s="37"/>
+      <c r="BF16" s="37"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="38"/>
+      <c r="BM16" s="38"/>
+      <c r="BN16" s="38"/>
+      <c r="BO16" s="38"/>
+      <c r="BP16" s="38"/>
+      <c r="BQ16" s="38"/>
+      <c r="BR16" s="38"/>
+      <c r="BS16" s="38"/>
     </row>
     <row r="17" spans="1:71" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="40"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="37"/>
-      <c r="AV17" s="38"/>
-      <c r="AW17" s="38"/>
-      <c r="AX17" s="38"/>
-      <c r="AY17" s="38"/>
-      <c r="AZ17" s="38"/>
-      <c r="BA17" s="40"/>
-      <c r="BB17" s="36"/>
-      <c r="BC17" s="37"/>
-      <c r="BD17" s="38"/>
-      <c r="BE17" s="38"/>
-      <c r="BF17" s="38"/>
-      <c r="BG17" s="34"/>
-      <c r="BH17" s="34"/>
-      <c r="BI17" s="34"/>
-      <c r="BJ17" s="34"/>
-      <c r="BK17" s="34"/>
-      <c r="BL17" s="34"/>
-      <c r="BM17" s="34"/>
-      <c r="BN17" s="34"/>
-      <c r="BO17" s="34"/>
-      <c r="BP17" s="34"/>
-      <c r="BQ17" s="34"/>
-      <c r="BR17" s="34"/>
-      <c r="BS17" s="34"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="35"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="37"/>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="34"/>
+      <c r="BB17" s="35"/>
+      <c r="BC17" s="36"/>
+      <c r="BD17" s="37"/>
+      <c r="BE17" s="37"/>
+      <c r="BF17" s="37"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="38"/>
+      <c r="BM17" s="38"/>
+      <c r="BN17" s="38"/>
+      <c r="BO17" s="38"/>
+      <c r="BP17" s="38"/>
+      <c r="BQ17" s="38"/>
+      <c r="BR17" s="38"/>
+      <c r="BS17" s="38"/>
     </row>
     <row r="18" spans="1:71" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:71" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6910,64 +6964,236 @@
     </row>
   </sheetData>
   <mergeCells count="312">
-    <mergeCell ref="AM12:AO12"/>
-    <mergeCell ref="BA12:BC12"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AV12:AZ12"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AV11:AZ11"/>
-    <mergeCell ref="BG11:BI11"/>
-    <mergeCell ref="BJ11:BL11"/>
-    <mergeCell ref="BG12:BI12"/>
-    <mergeCell ref="BJ12:BL12"/>
-    <mergeCell ref="BG9:BI9"/>
-    <mergeCell ref="BJ9:BL9"/>
-    <mergeCell ref="BG10:BI10"/>
-    <mergeCell ref="BJ10:BL10"/>
-    <mergeCell ref="BD7:BF7"/>
-    <mergeCell ref="BD9:BF9"/>
-    <mergeCell ref="BD11:BF11"/>
-    <mergeCell ref="BD12:BF12"/>
-    <mergeCell ref="BD10:BF10"/>
-    <mergeCell ref="BG7:BI7"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="BJ7:BL7"/>
-    <mergeCell ref="BD8:BF8"/>
-    <mergeCell ref="BG8:BI8"/>
-    <mergeCell ref="BJ8:BL8"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="BA7:BC7"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="BD3:BF4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AG3:BC3"/>
-    <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AS4:AU4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="P3:AD3"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="BG13:BI13"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="BG17:BI17"/>
+    <mergeCell ref="BD14:BF14"/>
+    <mergeCell ref="BP13:BS13"/>
+    <mergeCell ref="BP14:BS14"/>
+    <mergeCell ref="BP15:BS15"/>
+    <mergeCell ref="BP16:BS16"/>
+    <mergeCell ref="BP17:BS17"/>
+    <mergeCell ref="BD17:BF17"/>
+    <mergeCell ref="BD16:BF16"/>
+    <mergeCell ref="BJ16:BL16"/>
+    <mergeCell ref="BM16:BO16"/>
+    <mergeCell ref="BJ17:BL17"/>
+    <mergeCell ref="BM17:BO17"/>
+    <mergeCell ref="BJ13:BL13"/>
+    <mergeCell ref="BM13:BO13"/>
+    <mergeCell ref="BG14:BI14"/>
+    <mergeCell ref="BJ14:BL14"/>
+    <mergeCell ref="BM14:BO14"/>
+    <mergeCell ref="BM15:BO15"/>
+    <mergeCell ref="BG16:BI16"/>
+    <mergeCell ref="BG15:BI15"/>
+    <mergeCell ref="BJ15:BL15"/>
+    <mergeCell ref="BP7:BS7"/>
+    <mergeCell ref="BP9:BS9"/>
+    <mergeCell ref="BP10:BS10"/>
+    <mergeCell ref="BP11:BS11"/>
+    <mergeCell ref="BP12:BS12"/>
+    <mergeCell ref="BM9:BO9"/>
+    <mergeCell ref="BP8:BS8"/>
+    <mergeCell ref="BM8:BO8"/>
+    <mergeCell ref="BM10:BO10"/>
+    <mergeCell ref="BM11:BO11"/>
+    <mergeCell ref="BM12:BO12"/>
+    <mergeCell ref="BM7:BO7"/>
+    <mergeCell ref="AM16:AO16"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AM15:AO15"/>
+    <mergeCell ref="BD15:BF15"/>
+    <mergeCell ref="BA15:BC15"/>
+    <mergeCell ref="BA13:BC13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="BA14:BC14"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AM14:AO14"/>
+    <mergeCell ref="BA16:BC16"/>
+    <mergeCell ref="BD13:BF13"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AG14:AI14"/>
+    <mergeCell ref="AG15:AI15"/>
+    <mergeCell ref="AM17:AO17"/>
+    <mergeCell ref="BA17:BC17"/>
+    <mergeCell ref="AM13:AO13"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AM10:AO10"/>
+    <mergeCell ref="BA10:BC10"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AG17:AI17"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="AV14:AZ14"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AV15:AZ15"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AV16:AZ16"/>
+    <mergeCell ref="AS17:AU17"/>
+    <mergeCell ref="AV17:AZ17"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AV13:AZ13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AO11"/>
+    <mergeCell ref="BA11:BC11"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AM7:AO7"/>
+    <mergeCell ref="AM9:AO9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AS8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BC8"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="BG3:BI4"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="AS6:AU6"/>
+    <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="AS7:AU7"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="AJ7:AL7"/>
     <mergeCell ref="P9:Q9"/>
@@ -6992,236 +7218,64 @@
     <mergeCell ref="H4:O4"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="AS7:AU7"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AG6:AI6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="AG7:AI7"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="BG3:BI4"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="AS6:AU6"/>
-    <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AO11"/>
-    <mergeCell ref="BA11:BC11"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AM7:AO7"/>
-    <mergeCell ref="AM9:AO9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AS8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BC8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="AM17:AO17"/>
-    <mergeCell ref="BA17:BC17"/>
-    <mergeCell ref="AM13:AO13"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AM10:AO10"/>
-    <mergeCell ref="BA10:BC10"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="AV14:AZ14"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AV15:AZ15"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AV16:AZ16"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="AV17:AZ17"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AV13:AZ13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AP17:AR17"/>
-    <mergeCell ref="AM16:AO16"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AM15:AO15"/>
-    <mergeCell ref="BD15:BF15"/>
-    <mergeCell ref="BA15:BC15"/>
-    <mergeCell ref="BA13:BC13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="BA14:BC14"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AM14:AO14"/>
-    <mergeCell ref="BA16:BC16"/>
-    <mergeCell ref="BD13:BF13"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AG14:AI14"/>
-    <mergeCell ref="AG15:AI15"/>
-    <mergeCell ref="BP7:BS7"/>
-    <mergeCell ref="BP9:BS9"/>
-    <mergeCell ref="BP10:BS10"/>
-    <mergeCell ref="BP11:BS11"/>
-    <mergeCell ref="BP12:BS12"/>
-    <mergeCell ref="BM9:BO9"/>
-    <mergeCell ref="BP8:BS8"/>
-    <mergeCell ref="BM8:BO8"/>
-    <mergeCell ref="BM10:BO10"/>
-    <mergeCell ref="BM11:BO11"/>
-    <mergeCell ref="BM12:BO12"/>
-    <mergeCell ref="BM7:BO7"/>
-    <mergeCell ref="BG13:BI13"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="BG17:BI17"/>
-    <mergeCell ref="BD14:BF14"/>
-    <mergeCell ref="BP13:BS13"/>
-    <mergeCell ref="BP14:BS14"/>
-    <mergeCell ref="BP15:BS15"/>
-    <mergeCell ref="BP16:BS16"/>
-    <mergeCell ref="BP17:BS17"/>
-    <mergeCell ref="BD17:BF17"/>
-    <mergeCell ref="BD16:BF16"/>
-    <mergeCell ref="BJ16:BL16"/>
-    <mergeCell ref="BM16:BO16"/>
-    <mergeCell ref="BJ17:BL17"/>
-    <mergeCell ref="BM17:BO17"/>
-    <mergeCell ref="BJ13:BL13"/>
-    <mergeCell ref="BM13:BO13"/>
-    <mergeCell ref="BG14:BI14"/>
-    <mergeCell ref="BJ14:BL14"/>
-    <mergeCell ref="BM14:BO14"/>
-    <mergeCell ref="BM15:BO15"/>
-    <mergeCell ref="BG16:BI16"/>
-    <mergeCell ref="BG15:BI15"/>
-    <mergeCell ref="BJ15:BL15"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="BD3:BF4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AG3:BC3"/>
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="AS4:AU4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="P3:AD3"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="BJ7:BL7"/>
+    <mergeCell ref="BD8:BF8"/>
+    <mergeCell ref="BG8:BI8"/>
+    <mergeCell ref="BJ8:BL8"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="BA7:BC7"/>
+    <mergeCell ref="AS9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BG11:BI11"/>
+    <mergeCell ref="BJ11:BL11"/>
+    <mergeCell ref="BG12:BI12"/>
+    <mergeCell ref="BJ12:BL12"/>
+    <mergeCell ref="BG9:BI9"/>
+    <mergeCell ref="BJ9:BL9"/>
+    <mergeCell ref="BG10:BI10"/>
+    <mergeCell ref="BJ10:BL10"/>
+    <mergeCell ref="BD7:BF7"/>
+    <mergeCell ref="BD9:BF9"/>
+    <mergeCell ref="BD11:BF11"/>
+    <mergeCell ref="BD12:BF12"/>
+    <mergeCell ref="BD10:BF10"/>
+    <mergeCell ref="BG7:BI7"/>
+    <mergeCell ref="AM12:AO12"/>
+    <mergeCell ref="BA12:BC12"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AV12:AZ12"/>
+    <mergeCell ref="AS10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AV11:AZ11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
